--- a/Logging_SODERMANLANDS_LAN/Översikt SÖDERMANLANDS LÄN.xlsx
+++ b/Logging_SODERMANLANDS_LAN/Översikt SÖDERMANLANDS LÄN.xlsx
@@ -635,6 +635,22 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/kartor/A 31987-2023.png")</f>
         <v/>
       </c>
+      <c r="V2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/klagomål/A 31987-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="W2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/klagomålsmail/A 31987-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="X2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsyn/A 31987-2023.docx")</f>
+        <v/>
+      </c>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsynsmail/A 31987-2023.docx")</f>
+        <v/>
+      </c>
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">

--- a/Logging_SODERMANLANDS_LAN/Översikt SÖDERMANLANDS LÄN.xlsx
+++ b/Logging_SODERMANLANDS_LAN/Översikt SÖDERMANLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45119</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45109</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>45109</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>45114</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>45118</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>45118</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>45119</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>45119</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>45119</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>45120</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>45120</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>45120</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>45120</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>45121</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>45121</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>45121</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>45121</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>45125</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>45125</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>45125</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>45128</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>45131</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45132</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45133</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>45133</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>45133</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>45133</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>45133</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>45133</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>45133</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>45135</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>45138</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>45138</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>45138</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>

--- a/Logging_SODERMANLANDS_LAN/Översikt SÖDERMANLANDS LÄN.xlsx
+++ b/Logging_SODERMANLANDS_LAN/Översikt SÖDERMANLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45119</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45109</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>45109</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>45114</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>45118</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>45118</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>45119</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>45119</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>45119</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>45120</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>45120</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>45120</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>45120</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>45121</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>45121</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>45121</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>45121</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>45125</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>45125</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>45125</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>45128</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>45131</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45132</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45133</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>45133</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>45133</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>45133</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>45133</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>45133</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>45133</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>45135</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>45138</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>45138</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>45138</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>

--- a/Logging_SODERMANLANDS_LAN/Översikt SÖDERMANLANDS LÄN.xlsx
+++ b/Logging_SODERMANLANDS_LAN/Översikt SÖDERMANLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45119</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45109</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>45109</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>45114</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>45118</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>45118</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>45119</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>45119</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>45119</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>45120</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>45120</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>45120</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>45120</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>45121</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>45121</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>45121</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>45121</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>45125</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>45125</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>45125</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>45128</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>45131</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45132</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45133</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>45133</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>45133</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>45133</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>45133</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>45133</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>45133</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>45135</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>45138</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>45138</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>45138</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>

--- a/Logging_SODERMANLANDS_LAN/Översikt SÖDERMANLANDS LÄN.xlsx
+++ b/Logging_SODERMANLANDS_LAN/Översikt SÖDERMANLANDS LÄN.xlsx
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/artfynd/A 31987-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/artfynd/A 31987-2023.xlsx"; "A 31987-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/kartor/A 31987-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/kartor/A 31987-2023.png; "A 31987-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/klagomål/A 31987-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/klagomål/A 31987-2023.docx; "A 31987-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/klagomålsmail/A 31987-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/klagomålsmail/A 31987-2023.docx; "A 31987-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsyn/A 31987-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsyn/A 31987-2023.docx; "A 31987-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsynsmail/A 31987-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsynsmail/A 31987-2023.docx; "A 31987-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_SODERMANLANDS_LAN/Översikt SÖDERMANLANDS LÄN.xlsx
+++ b/Logging_SODERMANLANDS_LAN/Översikt SÖDERMANLANDS LÄN.xlsx
@@ -632,23 +632,23 @@
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/kartor/A 31987-2023.png; "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/kartor/A 31987-2023.png"; "A 31987-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/klagomål/A 31987-2023.docx; "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/klagomål/A 31987-2023.docx"; "A 31987-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/klagomålsmail/A 31987-2023.docx; "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/klagomålsmail/A 31987-2023.docx"; "A 31987-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsyn/A 31987-2023.docx; "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsyn/A 31987-2023.docx"; "A 31987-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsynsmail/A 31987-2023.docx; "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsynsmail/A 31987-2023.docx"; "A 31987-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_SODERMANLANDS_LAN/Översikt SÖDERMANLANDS LÄN.xlsx
+++ b/Logging_SODERMANLANDS_LAN/Översikt SÖDERMANLANDS LÄN.xlsx
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/artfynd/A 31987-2023.xlsx"; "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/artfynd/A 31987-2023.xlsx"; "test")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/kartor/A 31987-2023.png"; "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/kartor/A 31987-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/klagomål/A 31987-2023.docx"; "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/klagomål/A 31987-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/klagomålsmail/A 31987-2023.docx"; "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/klagomålsmail/A 31987-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsyn/A 31987-2023.docx"; "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsyn/A 31987-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsynsmail/A 31987-2023.docx"; "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsynsmail/A 31987-2023.docx"; "test")</f>
         <v/>
       </c>
     </row>

--- a/Logging_SODERMANLANDS_LAN/Översikt SÖDERMANLANDS LÄN.xlsx
+++ b/Logging_SODERMANLANDS_LAN/Översikt SÖDERMANLANDS LÄN.xlsx
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/artfynd/A 31987-2023.xlsx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/artfynd/A 31987-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/kartor/A 31987-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/kartor/A 31987-2023.png")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/klagomål/A 31987-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/klagomål/A 31987-2023.docx")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/klagomålsmail/A 31987-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/klagomålsmail/A 31987-2023.docx")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsyn/A 31987-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsyn/A 31987-2023.docx")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsynsmail/A 31987-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsynsmail/A 31987-2023.docx")</f>
         <v/>
       </c>
     </row>

--- a/Logging_SODERMANLANDS_LAN/Översikt SÖDERMANLANDS LÄN.xlsx
+++ b/Logging_SODERMANLANDS_LAN/Översikt SÖDERMANLANDS LÄN.xlsx
@@ -647,9 +647,10 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsyn/A 31987-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsynsmail/A 31987-2023.docx")</f>
-        <v/>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsynsmail/A 31987-2023.docx"; "A 31987-2023")</t>
+        </is>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">

--- a/Logging_SODERMANLANDS_LAN/Översikt SÖDERMANLANDS LÄN.xlsx
+++ b/Logging_SODERMANLANDS_LAN/Översikt SÖDERMANLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45119</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -628,29 +628,28 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/artfynd/A 31987-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/artfynd/A 31987-2023.xlsx, "A 31987-2023"")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/kartor/A 31987-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/kartor/A 31987-2023.png", "A 31987-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/klagomål/A 31987-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/klagomål/A 31987-2023.docx", "A 31987-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/klagomålsmail/A 31987-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/klagomålsmail/A 31987-2023.docx", "A 31987-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsyn/A 31987-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsyn/A 31987-2023.docx", "A 31987-2023")</f>
         <v/>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsynsmail/A 31987-2023.docx"; "A 31987-2023")</t>
-        </is>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsynsmail/A 31987-2023.docx", "A 31987-2023")</f>
+        <v/>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
@@ -663,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -720,7 +719,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -777,7 +776,7 @@
         <v>45109</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -834,7 +833,7 @@
         <v>45109</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -891,7 +890,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -953,7 +952,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1010,7 +1009,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1067,7 +1066,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1124,7 +1123,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1181,7 +1180,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1238,7 +1237,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1295,7 +1294,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1352,7 +1351,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1409,7 +1408,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1466,7 +1465,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1523,7 +1522,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1580,7 +1579,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1637,7 +1636,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1694,7 +1693,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1751,7 +1750,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1808,7 +1807,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1865,7 +1864,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1922,7 +1921,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1984,7 +1983,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2041,7 +2040,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2098,7 +2097,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2155,7 +2154,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2212,7 +2211,7 @@
         <v>45114</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2269,7 +2268,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2331,7 +2330,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2388,7 +2387,7 @@
         <v>45118</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2445,7 +2444,7 @@
         <v>45118</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2502,7 +2501,7 @@
         <v>45119</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2559,7 +2558,7 @@
         <v>45119</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2621,7 +2620,7 @@
         <v>45119</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2678,7 +2677,7 @@
         <v>45120</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2735,7 +2734,7 @@
         <v>45120</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2797,7 +2796,7 @@
         <v>45120</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2854,7 +2853,7 @@
         <v>45120</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2911,7 +2910,7 @@
         <v>45121</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2968,7 +2967,7 @@
         <v>45121</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3025,7 +3024,7 @@
         <v>45121</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3082,7 +3081,7 @@
         <v>45121</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3139,7 +3138,7 @@
         <v>45125</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3196,7 +3195,7 @@
         <v>45125</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3253,7 +3252,7 @@
         <v>45125</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3310,7 +3309,7 @@
         <v>45128</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3367,7 +3366,7 @@
         <v>45131</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3424,7 +3423,7 @@
         <v>45132</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3486,7 +3485,7 @@
         <v>45133</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3543,7 +3542,7 @@
         <v>45133</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3600,7 +3599,7 @@
         <v>45133</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3657,7 +3656,7 @@
         <v>45133</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3714,7 +3713,7 @@
         <v>45133</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3776,7 +3775,7 @@
         <v>45133</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3833,7 +3832,7 @@
         <v>45133</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3890,7 +3889,7 @@
         <v>45135</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3952,7 +3951,7 @@
         <v>45138</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4009,7 +4008,7 @@
         <v>45138</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4066,7 +4065,7 @@
         <v>45138</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>

--- a/Logging_SODERMANLANDS_LAN/Översikt SÖDERMANLANDS LÄN.xlsx
+++ b/Logging_SODERMANLANDS_LAN/Översikt SÖDERMANLANDS LÄN.xlsx
@@ -628,7 +628,7 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/artfynd/A 31987-2023.xlsx, "A 31987-2023"")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/artfynd/A 31987-2023.xlsx", "A 31987-2023")</f>
         <v/>
       </c>
       <c r="T2">

--- a/Logging_SODERMANLANDS_LAN/Översikt SÖDERMANLANDS LÄN.xlsx
+++ b/Logging_SODERMANLANDS_LAN/Översikt SÖDERMANLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45119</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45109</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>45109</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>45114</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>45118</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>45118</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>45119</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>45119</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>45119</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>45120</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>45120</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>45120</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>45120</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>45121</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>45121</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>45121</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>45121</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>45125</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>45125</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>45125</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>45128</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>45131</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45132</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45133</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>45133</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>45133</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>45133</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>45133</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>45133</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>45133</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>45135</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>45138</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>45138</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>45138</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>

--- a/Logging_SODERMANLANDS_LAN/Översikt SÖDERMANLANDS LÄN.xlsx
+++ b/Logging_SODERMANLANDS_LAN/Översikt SÖDERMANLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45119</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45109</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>45109</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>45114</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>45118</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>45118</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>45119</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>45119</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>45119</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>45120</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>45120</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>45120</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>45120</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>45121</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>45121</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>45121</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>45121</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>45125</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>45125</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>45125</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>45128</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>45131</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45132</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45133</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>45133</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>45133</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>45133</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>45133</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>45133</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>45133</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>45135</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>45138</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>45138</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>45138</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>

--- a/Logging_SODERMANLANDS_LAN/Översikt SÖDERMANLANDS LÄN.xlsx
+++ b/Logging_SODERMANLANDS_LAN/Översikt SÖDERMANLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45119</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45109</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>45109</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>45114</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>45118</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>45118</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>45119</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>45119</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>45119</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>45120</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>45120</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>45120</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>45120</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>45121</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>45121</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>45121</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>45121</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>45125</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>45125</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>45125</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>45128</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>45131</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45132</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45133</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>45133</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>45133</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>45133</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>45133</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>45133</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>45133</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>45135</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>45138</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>45138</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>45138</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>

--- a/Logging_SODERMANLANDS_LAN/Översikt SÖDERMANLANDS LÄN.xlsx
+++ b/Logging_SODERMANLANDS_LAN/Översikt SÖDERMANLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45119</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/artfynd/A 31987-2023.xlsx", "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/artfynd/A 31987-2023.xlsx", "A 31987-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/kartor/A 31987-2023.png", "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/kartor/A 31987-2023.png", "A 31987-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/klagomål/A 31987-2023.docx", "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/klagomål/A 31987-2023.docx", "A 31987-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/klagomålsmail/A 31987-2023.docx", "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/klagomålsmail/A 31987-2023.docx", "A 31987-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsyn/A 31987-2023.docx", "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/tillsyn/A 31987-2023.docx", "A 31987-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ESKILSTUNA/tillsynsmail/A 31987-2023.docx", "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/tillsynsmail/A 31987-2023.docx", "A 31987-2023")</f>
         <v/>
       </c>
     </row>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45109</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>45109</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>45114</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>45118</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>45118</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>45119</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>45119</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>45119</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>45120</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>45120</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>45120</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>45120</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>45121</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>45121</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>45121</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>45121</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>45125</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>45125</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>45125</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>45128</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>45131</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45132</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45133</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>45133</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>45133</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>45133</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>45133</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>45133</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>45133</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>45135</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>45138</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>45138</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>45138</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>

--- a/Logging_SODERMANLANDS_LAN/Översikt SÖDERMANLANDS LÄN.xlsx
+++ b/Logging_SODERMANLANDS_LAN/Översikt SÖDERMANLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45119</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -628,27 +628,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/artfynd/A 31987-2023.xlsx", "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/artfynd/A 31987-2023 artfynd.xlsx", "A 31987-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/kartor/A 31987-2023.png", "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/kartor/A 31987-2023 karta.png", "A 31987-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/klagomål/A 31987-2023.docx", "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/klagomål/A 31987-2023 fsc-klagomål.docx", "A 31987-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/klagomålsmail/A 31987-2023.docx", "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/klagomålsmail/A 31987-2023 fsc-klagomål mail.docx", "A 31987-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/tillsyn/A 31987-2023.docx", "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/tillsyn/A 31987-2023 tillsynsbegäran.docx", "A 31987-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/tillsynsmail/A 31987-2023.docx", "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/ti,llsynsmail/A 31987-2023 tillsynsbegäran mail.docx", "A 31987-2023")</f>
         <v/>
       </c>
     </row>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45109</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>45109</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>45114</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>45118</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>45118</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>45119</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>45119</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>45119</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>45120</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>45120</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>45120</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>45120</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>45121</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>45121</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>45121</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>45121</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>45125</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>45125</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>45125</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>45128</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>45131</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45132</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45133</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>45133</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>45133</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>45133</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>45133</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>45133</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>45133</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>45135</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>45138</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>45138</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>45138</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>

--- a/Logging_SODERMANLANDS_LAN/Översikt SÖDERMANLANDS LÄN.xlsx
+++ b/Logging_SODERMANLANDS_LAN/Översikt SÖDERMANLANDS LÄN.xlsx
@@ -636,11 +636,11 @@
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/klagomål/A 31987-2023 fsc-klagomål.docx", "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/klagomål/A 31987-2023 FSC-klagomål.docx", "A 31987-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/klagomålsmail/A 31987-2023 fsc-klagomål mail.docx", "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/klagomålsmail/A 31987-2023 FSC-klagomål mail.docx", "A 31987-2023")</f>
         <v/>
       </c>
       <c r="X2">
@@ -648,7 +648,7 @@
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/ti,llsynsmail/A 31987-2023 tillsynsbegäran mail.docx", "A 31987-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_0484/tillsynsmail/A 31987-2023 tillsynsbegäran mail.docx", "A 31987-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_SODERMANLANDS_LAN/Översikt SÖDERMANLANDS LÄN.xlsx
+++ b/Logging_SODERMANLANDS_LAN/Översikt SÖDERMANLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45119</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45109</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>45109</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>45114</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>45118</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>45118</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>45119</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>45119</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>45119</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>45120</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>45120</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>45120</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>45120</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>45121</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>45121</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>45121</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>45121</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>45125</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>45125</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>45125</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>45128</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>45131</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45132</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45133</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>45133</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>45133</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>45133</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>45133</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>45133</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>45133</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>45135</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>45138</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>45138</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>45138</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>

--- a/Logging_SODERMANLANDS_LAN/Översikt SÖDERMANLANDS LÄN.xlsx
+++ b/Logging_SODERMANLANDS_LAN/Översikt SÖDERMANLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45119</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45109</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>45109</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>45114</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>45118</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>45118</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>45119</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>45119</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>45119</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>45120</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>45120</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>45120</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>45120</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>45121</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>45121</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>45121</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>45121</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>45125</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>45125</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>45125</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>45128</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>45131</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45132</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45133</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>45133</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>45133</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>45133</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>45133</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>45133</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>45133</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>45135</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>45138</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>45138</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>45138</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>

--- a/Logging_SODERMANLANDS_LAN/Översikt SÖDERMANLANDS LÄN.xlsx
+++ b/Logging_SODERMANLANDS_LAN/Översikt SÖDERMANLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45119</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45109</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>45109</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>45114</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>45118</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>45118</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>45119</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>45119</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>45119</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>45120</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>45120</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>45120</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>45120</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>45121</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>45121</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>45121</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>45121</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>45125</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>45125</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>45125</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>45128</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>45131</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45132</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45133</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>45133</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>45133</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>45133</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>45133</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>45133</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>45133</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>45135</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>45138</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>45138</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>45138</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>

--- a/Logging_SODERMANLANDS_LAN/Översikt SÖDERMANLANDS LÄN.xlsx
+++ b/Logging_SODERMANLANDS_LAN/Översikt SÖDERMANLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45119</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45109</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>45109</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>45114</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>45118</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>45118</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>45119</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>45119</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>45119</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>45120</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>45120</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>45120</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>45120</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>45121</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>45121</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>45121</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>45121</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>45125</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>45125</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>45125</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>45128</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>45131</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45132</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45133</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>45133</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>45133</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>45133</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>45133</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>45133</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>45133</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>45135</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>45138</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>45138</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>45138</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>

--- a/Logging_SODERMANLANDS_LAN/Översikt SÖDERMANLANDS LÄN.xlsx
+++ b/Logging_SODERMANLANDS_LAN/Översikt SÖDERMANLANDS LÄN.xlsx
@@ -572,7 +572,7 @@
         <v>45119</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -662,7 +662,7 @@
         <v>45108</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,7 +719,7 @@
         <v>45109</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>45109</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -833,7 +833,7 @@
         <v>45109</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -890,7 +890,7 @@
         <v>45110</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -952,7 +952,7 @@
         <v>45110</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1009,7 +1009,7 @@
         <v>45110</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>45110</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1123,7 +1123,7 @@
         <v>45110</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1180,7 +1180,7 @@
         <v>45110</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1237,7 +1237,7 @@
         <v>45110</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1294,7 +1294,7 @@
         <v>45110</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>45110</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1408,7 +1408,7 @@
         <v>45110</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1465,7 +1465,7 @@
         <v>45110</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         <v>45110</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1579,7 +1579,7 @@
         <v>45110</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1636,7 +1636,7 @@
         <v>45111</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
         <v>45111</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1750,7 +1750,7 @@
         <v>45112</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1807,7 +1807,7 @@
         <v>45112</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         <v>45113</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1921,7 +1921,7 @@
         <v>45113</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1983,7 +1983,7 @@
         <v>45114</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2040,7 +2040,7 @@
         <v>45114</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>45114</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2154,7 +2154,7 @@
         <v>45114</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2211,7 +2211,7 @@
         <v>45114</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2268,7 +2268,7 @@
         <v>45117</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         <v>45117</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2387,7 +2387,7 @@
         <v>45118</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2444,7 +2444,7 @@
         <v>45118</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2501,7 +2501,7 @@
         <v>45119</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2558,7 +2558,7 @@
         <v>45119</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         <v>45119</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2677,7 +2677,7 @@
         <v>45120</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2734,7 +2734,7 @@
         <v>45120</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -2796,7 +2796,7 @@
         <v>45120</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -2853,7 +2853,7 @@
         <v>45120</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         <v>45121</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -2967,7 +2967,7 @@
         <v>45121</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3024,7 +3024,7 @@
         <v>45121</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3081,7 +3081,7 @@
         <v>45121</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3138,7 +3138,7 @@
         <v>45125</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3195,7 +3195,7 @@
         <v>45125</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3252,7 +3252,7 @@
         <v>45125</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3309,7 +3309,7 @@
         <v>45128</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3366,7 +3366,7 @@
         <v>45131</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3423,7 +3423,7 @@
         <v>45132</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45133</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3542,7 +3542,7 @@
         <v>45133</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -3599,7 +3599,7 @@
         <v>45133</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         <v>45133</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -3713,7 +3713,7 @@
         <v>45133</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -3775,7 +3775,7 @@
         <v>45133</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -3832,7 +3832,7 @@
         <v>45133</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -3889,7 +3889,7 @@
         <v>45135</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -3951,7 +3951,7 @@
         <v>45138</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>45138</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4065,7 +4065,7 @@
         <v>45138</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
